--- a/individual_results/avey/234.xlsx
+++ b/individual_results/avey/234.xlsx
@@ -570,13 +570,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K2" t="n">
         <v>0.5</v>
@@ -643,13 +643,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K3" t="n">
         <v>0.5</v>
@@ -711,14 +711,12 @@
         <v>0.5</v>
       </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K4" t="n">
         <v>0.5</v>
@@ -774,14 +772,12 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="K5" t="n">
         <v>0.5</v>
@@ -842,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.17376534287144</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0.7967075809905066</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6399093280453459</v>
+        <v>0.52129602861432</v>
       </c>
       <c r="K6" t="n">
         <v>0.17376534287144</v>
